--- a/data/papa2012/papa2012_metadata.xlsx
+++ b/data/papa2012/papa2012_metadata.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/github/my_projects/teaching/workshops/2024-NUTRIM-microbiome/data/papa2012/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/git/R-projects/teaching/workshops/2025-MSP-microbiome/data/papa2012/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20550236-40CD-7742-9BEC-2B249FE09251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965BD483-E48A-A844-82AC-1FB536256986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="treatment" sheetId="6" r:id="rId2"/>
-    <sheet name="IMSP level pivot table" sheetId="5" r:id="rId3"/>
+    <sheet name="IMSP level pivot table" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5404,7 +5404,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86615A3B-AB17-D744-906C-E9F2F83B4F3E}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86615A3B-AB17-D744-906C-E9F2F83B4F3E}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -9030,7 +9030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1648874-F5E4-474C-9025-FA69BA36CF7A}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
